--- a/va_facility_data_2025-02-20/Morristown East VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Morristown%20East%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Morristown East VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Morristown%20East%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2877ebe990c34dba867c2edcf420dfad"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rbca8a49fa743416c90b76fc58e3bb6f5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R87fcb2478a234dc7b3b80981ec5ea380"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Re74e08c429324056922b03184c1bccea"/>
   </x:sheets>
 </x:workbook>
 </file>
